--- a/biology/Médecine/Claude_Martin_(médecin)/Claude_Martin_(médecin).xlsx
+++ b/biology/Médecine/Claude_Martin_(médecin)/Claude_Martin_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Claude_Martin_(m%C3%A9decin)</t>
+          <t>Claude_Martin_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Claude Martin (Saint-Étienne, 17 mai 1843 — Lyon, 29 janvier 1911) est un médecin, dentiste de l'Hôtel-Dieu de Lyon, membre correspondant de l'Académie de médecine de Paris.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Claude_Martin_(m%C3%A9decin)</t>
+          <t>Claude_Martin_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il reçoit le prix Barbier de l'Académie des sciences en 1890 pour son travail De la prothèse immédiate, appliquée à la résection des maxillaires…[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il reçoit le prix Barbier de l'Académie des sciences en 1890 pour son travail De la prothèse immédiate, appliquée à la résection des maxillaires….
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Claude_Martin_(m%C3%A9decin)</t>
+          <t>Claude_Martin_(médecin)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,14 +556,16 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>[c. 1880] Album de photos montrant des visages avant et après chirurgie, 1880 (lire en ligne [sur gallica]).
-[1887] Du traitement des fractures du maxillaire inférieur par un nouvel appareil, Paris, éd. Félix Alcan, 1887, 161 p. (lire en ligne [sur gallica]).
-[1888] Prothèse immédiate à la suite de résections partielles du maxillaire inférieur  (préf. L. Ollier), Lyon, Association typographique, 1888, 12 p. (lire en ligne [sur gallica]).
-[1889] De la prothèse immédiate, appliquée à la résection des maxillaires : rhinoplastie sur appareil prothétique permanent : restauration de la face, lèvres, nez, langue, voûte et voile du palais  (préf. L. Ollier), Paris, G. Masson, 1889, 440 p. (OCLC 1042950075, lire en ligne [sur archive.org]).
-[1893] Des résultats éloignés de la prothèse immédiate dans les résections du maxillaire inférieur (thèse de doctorat en médecine), Lyon, impr. A. Storck, 1893 (lire en ligne [sur gallica]).
-[1899] De la Simplification des méthodes de traitement des fractures du maxillaire inférieur, Lyon, impr. A. Storck, 1899, 22 p. (lire en ligne [sur gallica]).</t>
+ Du traitement des fractures du maxillaire inférieur par un nouvel appareil, Paris, éd. Félix Alcan, 1887, 161 p. (lire en ligne [sur gallica]).
+ Prothèse immédiate à la suite de résections partielles du maxillaire inférieur  (préf. L. Ollier), Lyon, Association typographique, 1888, 12 p. (lire en ligne [sur gallica]).
+ De la prothèse immédiate, appliquée à la résection des maxillaires : rhinoplastie sur appareil prothétique permanent : restauration de la face, lèvres, nez, langue, voûte et voile du palais  (préf. L. Ollier), Paris, G. Masson, 1889, 440 p. (OCLC 1042950075, lire en ligne [sur archive.org]).
+ Des résultats éloignés de la prothèse immédiate dans les résections du maxillaire inférieur (thèse de doctorat en médecine), Lyon, impr. A. Storck, 1893 (lire en ligne [sur gallica]).
+ De la Simplification des méthodes de traitement des fractures du maxillaire inférieur, Lyon, impr. A. Storck, 1899, 22 p. (lire en ligne [sur gallica]).</t>
         </is>
       </c>
     </row>
